--- a/src/10t/assets/LEG_3.xlsx
+++ b/src/10t/assets/LEG_3.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
-    <t>二级BOM 前支腿 2T，11˂S≤14米，4.5˂H0≤4.6m（图号：Z60231）</t>
-  </si>
-  <si>
-    <t>7021-00064</t>
+    <t>二级BOM 前支腿 2T，14˂S≤17米，4.5˂H0≤4.6m（图号：Z60532）</t>
+  </si>
+  <si>
+    <t>7022-00064</t>
   </si>
   <si>
     <t>前支腿</t>
   </si>
   <si>
-    <t>7021-00100</t>
+    <t>7022-00100</t>
   </si>
   <si>
     <t>下法兰</t>
   </si>
   <si>
-    <t>板 12×330×330</t>
+    <t>板 14×330×330</t>
   </si>
   <si>
     <t>件</t>
@@ -46,7 +46,7 @@
     <t>00</t>
   </si>
   <si>
-    <t>7021-00415</t>
+    <t>7022-00415</t>
   </si>
   <si>
     <t>左腹板</t>
@@ -61,7 +61,7 @@
     <t>Q235B</t>
   </si>
   <si>
-    <t>7021-00416</t>
+    <t>7022-00416</t>
   </si>
   <si>
     <t>右腹板</t>
@@ -70,16 +70,16 @@
     <t>板 5×208×L2</t>
   </si>
   <si>
-    <t>7021-00417</t>
+    <t>7022-00417</t>
   </si>
   <si>
     <t>盖板</t>
   </si>
   <si>
-    <t>板 5×(上670，下270）×F</t>
-  </si>
-  <si>
-    <t>7021-00418</t>
+    <t>板 5×(上770，下270）×F</t>
+  </si>
+  <si>
+    <t>7022-00418</t>
   </si>
   <si>
     <t>加强筋</t>
@@ -88,7 +88,7 @@
     <t>板 5×50×E</t>
   </si>
   <si>
-    <t>7021-00419</t>
+    <t>7022-00419</t>
   </si>
   <si>
     <t>隔板（放样）</t>
@@ -97,16 +97,16 @@
     <t>板 5×210×L3(总长)</t>
   </si>
   <si>
-    <t>7021-00420</t>
+    <t>7022-00420</t>
   </si>
   <si>
     <t>上法兰</t>
   </si>
   <si>
-    <t>板 12×290×630</t>
-  </si>
-  <si>
-    <t>7021-00107</t>
+    <t>板 12×290×830</t>
+  </si>
+  <si>
+    <t>7022-00107</t>
   </si>
   <si>
     <t>三角筋</t>
@@ -115,7 +115,7 @@
     <t>板 5×50×100</t>
   </si>
   <si>
-    <t>7021-00108</t>
+    <t>7022-00108</t>
   </si>
   <si>
     <t>板 5×62×100</t>
@@ -126,9 +126,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -154,6 +154,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -162,8 +206,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,73 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -252,17 +261,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,14 +285,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,43 +325,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,139 +499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,11 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,30 +565,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -593,6 +575,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,15 +631,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -639,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1205,11 +1205,11 @@
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="11">
-        <v>10.6</v>
+        <v>12.36</v>
       </c>
       <c r="M2" s="11">
         <f t="shared" ref="M2:M10" si="0">I2*L2</f>
-        <v>10.6</v>
+        <v>12.36</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>7</v>
@@ -1259,11 +1259,11 @@
         <v>14</v>
       </c>
       <c r="L3" s="11">
-        <v>33.9</v>
+        <v>32.6</v>
       </c>
       <c r="M3" s="11">
         <f t="shared" si="0"/>
-        <v>33.9</v>
+        <v>32.6</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
@@ -1311,11 +1311,11 @@
         <v>14</v>
       </c>
       <c r="L4" s="11">
-        <v>33.9</v>
+        <v>32.9</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>33.9</v>
+        <v>32.9</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8" t="s">
@@ -1363,11 +1363,11 @@
         <v>14</v>
       </c>
       <c r="L5" s="11">
-        <v>60.65</v>
+        <v>130.85</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="0"/>
-        <v>121.3</v>
+        <v>261.7</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
@@ -1415,11 +1415,11 @@
         <v>14</v>
       </c>
       <c r="L6" s="11">
-        <v>17.7</v>
+        <v>16.8</v>
       </c>
       <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
@@ -1467,11 +1467,11 @@
         <v>14</v>
       </c>
       <c r="L7" s="11">
-        <v>10.7</v>
+        <v>15.2</v>
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>10.7</v>
+        <v>15.2</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
@@ -1515,11 +1515,11 @@
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="11">
-        <v>12.9</v>
+        <v>21.43</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>12.9</v>
+        <v>21.43</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>7</v>
@@ -1558,18 +1558,18 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="11">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>0.95</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>7</v>
@@ -1615,11 +1615,11 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="11">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="0"/>
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>7</v>
